--- a/deliverable3/RootDigital_Deliverable_2_SprintBacklog.xlsx
+++ b/deliverable3/RootDigital_Deliverable_2_SprintBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ewm25\Documents\GitHub\Root-Digital\deliverable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D063A99C-173A-44FB-ADBC-8795CEE48F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24DC8C0-2F3E-4500-A323-E89D288273CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>User Story</t>
   </si>
@@ -74,6 +74,13 @@
   </si>
   <si>
     <t>As a user, I want to choose different alarms, so I can personalize it for me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a novice to fitness, I want visuals to help guide me during exercises,
+	so that I can use the app without having to stop to research forms. </t>
+  </si>
+  <si>
+    <t>High</t>
   </si>
 </sst>
 </file>
@@ -146,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -163,6 +170,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -387,7 +395,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -439,7 +447,9 @@
       <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -469,7 +479,9 @@
       <c r="C3" s="1">
         <v>3</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
@@ -499,7 +511,9 @@
       <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
@@ -529,7 +543,9 @@
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
@@ -542,20 +558,44 @@
       <c r="H5" s="7">
         <v>5</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>1</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3"/>
+    <row r="6" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="9">
+        <v>20</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -677,7 +717,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
